--- a/medicine/Mort/Cimetière_militaire_britannique_de_Brancourt-le-Grand/Cimetière_militaire_britannique_de_Brancourt-le-Grand.xlsx
+++ b/medicine/Mort/Cimetière_militaire_britannique_de_Brancourt-le-Grand/Cimetière_militaire_britannique_de_Brancourt-le-Grand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_britannique_de_Brancourt-le-Grand</t>
+          <t>Cimetière_militaire_britannique_de_Brancourt-le-Grand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire britannique de Brancourt-le-Grand (Brancourt-le-Grand Military Cemetery) est un cimetière militaire de la Première Guerre mondiale situé sur le territoire de la commune de Brancourt-le-Grand dans le département de l'Aisne .
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_britannique_de_Brancourt-le-Grand</t>
+          <t>Cimetière_militaire_britannique_de_Brancourt-le-Grand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière est situé à une centaine de mètres de la route de Fresnoy-le-Grand, non loin du cimetière communal. On y accède par un petit sentier.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_britannique_de_Brancourt-le-Grand</t>
+          <t>Cimetière_militaire_britannique_de_Brancourt-le-Grand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le village du Brancourt-le-Grand a été occupé par les Allemands dès le début de la guerre en août 1914. Il n'a été définitivement repris a été repris que le 8 octobre 1918 par la 30e division américaine et le 301e bataillon de chars américains; le 118e régiment d'infanterie érigea un mémorial dans le village. Le cimetière militaire a été construit derrière un cimetière allemand de 168 tombes (aujourd'hui enlevé) en octobre 1918.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_britannique_de_Brancourt-le-Grand</t>
+          <t>Cimetière_militaire_britannique_de_Brancourt-le-Grand</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Caractéristique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière comporte les tombes de 42 soldats britanniques, tombés pour la plupart les 8, 9 et 10 octobre lors de la libération du village [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière comporte les tombes de 42 soldats britanniques, tombés pour la plupart les 8, 9 et 10 octobre lors de la libération du village .
 </t>
         </is>
       </c>
